--- a/codes/output/harmonised/harmonised_Cohort_B.xlsx
+++ b/codes/output/harmonised/harmonised_Cohort_B.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">cohort_name</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">B017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1</t>
   </si>
   <si>
     <t xml:space="preserve">B018</t>
@@ -1276,10 +1279,10 @@
         <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
@@ -1299,7 +1302,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
         <v>56</v>
@@ -1343,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
         <v>45</v>
@@ -1387,7 +1390,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" t="n">
         <v>50</v>
